--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Column1</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">       RUN</t>
+  </si>
+  <si>
+    <t>Anna</t>
   </si>
 </sst>
 </file>
@@ -1850,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:K34"/>
+  <dimension ref="D3:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1861,7 +1864,7 @@
     <col min="5" max="13" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>7</v>
       </c>
@@ -1924,31 +1927,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D8">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D10">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D12">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D14">
         <v>11</v>
       </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D16">
         <v>12</v>
       </c>
